--- a/result/sst_vit_result_1.xlsx
+++ b/result/sst_vit_result_1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,268 +461,278 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>model_image_size</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>360</v>
+          <t>model_load_weights</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>model_patch_size</t>
+          <t>model_image_size</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>model_num_layers</t>
+          <t>model_patch_size</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>model_num_heads</t>
+          <t>model_num_layers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>model_hidden_dim</t>
+          <t>model_num_heads</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>model_mlp_dim</t>
+          <t>model_hidden_dim</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2048</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>model_num_classes</t>
+          <t>model_mlp_dim</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64800</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>data_file_path</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>./sst_weekly.mat</t>
-        </is>
+          <t>model_num_classes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>64800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>training_batch_size</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
+          <t>data_file_path</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>./sst_weekly.mat</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>training_learning_rate</t>
+          <t>training_batch_size</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>training_start_point</t>
+          <t>training_learning_rate</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>training_sensor_num</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[10, 20, 30, 50, 100]</t>
-        </is>
+          <t>training_start_point</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>training_sensor_seed</t>
+          <t>training_sensor_num</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[4, 20, 75, 138, 278]</t>
+          <t>[10]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>training_sigma</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.05</v>
+          <t>training_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[4, 20, 75, 138, 278]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>training_input_type</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>VIT</t>
-        </is>
+          <t>training_sigma</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>testing_batch_size</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
+          <t>training_input_type</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>testing_start_point</t>
+          <t>testing_batch_size</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>testing_norm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
+          <t>testing_start_point</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1098</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>testing_sensor_num</t>
+          <t>testing_norm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[10, 20, 30, 50, 70, 100, 200]</t>
+          <t>L2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>testing_sensor_seed</t>
+          <t>testing_sensor_num</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[553, 897, 1016, 1255, 1437]</t>
+          <t>[10, 20, 30, 50, 70, 100, 200]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>testing_sigma</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.05</v>
+          <t>testing_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[553, 897, 1016, 1255, 1437]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>testing_input_type</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>VIT</t>
-        </is>
+          <t>testing_sigma</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>device_prefer_gpu</t>
-        </is>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
+          <t>testing_input_type</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>output_model_result</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>sst_vit_result_1</t>
-        </is>
+          <t>device_prefer_gpu</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>output_model_result</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sst_vit_result_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>output_model_save_path</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>model/sst_vit_test_1.pth</t>
         </is>
@@ -789,22 +799,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1440243721008301</v>
+        <v>0.07123972430825233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1440243721008301</v>
+        <v>0.09482713788747787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440243721008301</v>
+        <v>0.05608471110463142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.143948033452034</v>
+        <v>0.07118228569626808</v>
       </c>
       <c r="F2" t="n">
-        <v>0.143948033452034</v>
+        <v>0.09486017376184464</v>
       </c>
       <c r="G2" t="n">
-        <v>0.143948033452034</v>
+        <v>0.05602823197841644</v>
       </c>
     </row>
     <row r="3">
@@ -812,22 +822,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1440240144729614</v>
+        <v>0.07119411624968051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1440240144729614</v>
+        <v>0.09484513103961945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1440240144729614</v>
+        <v>0.05605604499578476</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1440241634845734</v>
+        <v>0.07118809424340725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1440241634845734</v>
+        <v>0.09485560655593872</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1440241634845734</v>
+        <v>0.05606448650360107</v>
       </c>
     </row>
     <row r="4">
@@ -835,22 +845,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1440239399671555</v>
+        <v>0.07118894092738628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1440239399671555</v>
+        <v>0.09484122693538666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1440239399671555</v>
+        <v>0.05607112869620323</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1440236866474152</v>
+        <v>0.07115463718771935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1440236866474152</v>
+        <v>0.0948520228266716</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1440236866474152</v>
+        <v>0.05604441091418266</v>
       </c>
     </row>
     <row r="5">
@@ -858,22 +868,22 @@
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1440242677927017</v>
+        <v>0.0711574549973011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1440242677927017</v>
+        <v>0.09486279636621475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1440242677927017</v>
+        <v>0.05604036524891853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1440247744321823</v>
+        <v>0.07117878697812557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1440247744321823</v>
+        <v>0.09486264735460281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1440247744321823</v>
+        <v>0.05602728947997093</v>
       </c>
     </row>
     <row r="6">
@@ -881,22 +891,22 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1440246105194092</v>
+        <v>0.07116825558245182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1440246105194092</v>
+        <v>0.0948546975851059</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1440246105194092</v>
+        <v>0.05605451390147209</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1440248042345047</v>
+        <v>0.07119188182055951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1440248042345047</v>
+        <v>0.09484977275133133</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1440248042345047</v>
+        <v>0.05604604631662369</v>
       </c>
     </row>
     <row r="7">
@@ -904,22 +914,22 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1440246403217316</v>
+        <v>0.07117349669337272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1440246403217316</v>
+        <v>0.09486169368028641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440246403217316</v>
+        <v>0.05605972558259964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1440249085426331</v>
+        <v>0.07119025938212871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1440249085426331</v>
+        <v>0.0948314294219017</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1440249085426331</v>
+        <v>0.05608692020177841</v>
       </c>
     </row>
     <row r="8">
@@ -927,22 +937,22 @@
         <v>200</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1440244615077972</v>
+        <v>0.07118490591645241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1440244615077972</v>
+        <v>0.09485668689012527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1440244615077972</v>
+        <v>0.05607689917087555</v>
       </c>
       <c r="E8" t="n">
-        <v>0.144024670124054</v>
+        <v>0.07117735281586647</v>
       </c>
       <c r="F8" t="n">
-        <v>0.144024670124054</v>
+        <v>0.09483776241540909</v>
       </c>
       <c r="G8" t="n">
-        <v>0.144024670124054</v>
+        <v>0.05603340640664101</v>
       </c>
     </row>
   </sheetData>

--- a/result/sst_vit_result_1.xlsx
+++ b/result/sst_vit_result_1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +553,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>training_batch_size</t>
+          <t>training_fig_num</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -563,176 +563,196 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>training_learning_rate</t>
+          <t>training_batch_size</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>training_start_point</t>
+          <t>training_learning_rate</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>training_sensor_num</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[10]</t>
-        </is>
+          <t>training_start_point</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>training_sensor_seed</t>
+          <t>training_sensor_num</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[4, 20, 75, 138, 278]</t>
+          <t>[10]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>training_sigma</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.05</v>
+          <t>training_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[4, 20, 75, 138, 278]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>training_input_type</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>VIT</t>
-        </is>
+          <t>training_sigma</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>testing_batch_size</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
+          <t>training_input_type</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VIT</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>testing_start_point</t>
+          <t>testing_fig_num</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1098</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>testing_norm</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
+          <t>testing_batch_size</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>testing_sensor_num</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[10, 20, 30, 50, 70, 100, 200]</t>
-        </is>
+          <t>testing_start_point</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1098</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>testing_sensor_seed</t>
+          <t>testing_norm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[553, 897, 1016, 1255, 1437]</t>
+          <t>L2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>testing_sigma</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.05</v>
+          <t>testing_sensor_num</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[20, 30, 50, 70, 100, 200]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>testing_input_type</t>
+          <t>testing_sensor_seed</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>[553, 897, 1016, 1255, 1437]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>device_prefer_gpu</t>
-        </is>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
+          <t>testing_sigma</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>output_model_result</t>
+          <t>testing_input_type</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sst_vit_result_1</t>
+          <t>VIT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>device_prefer_gpu</t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>output_model_result</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sst_vit_result_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>output_model_save_path</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>model/sst_vit_test_1.pth</t>
         </is>
@@ -765,32 +785,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>trained_results</t>
+          <t>avg_trained</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>trained_max</t>
+          <t>avg_train</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>trained_min</t>
+          <t>avg_test</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>untrained_results</t>
+          <t>avg_untrained</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>untrained_max</t>
+          <t>avg_untrained_train</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>untrained_min</t>
+          <t>avg_untrained_test</t>
         </is>
       </c>
     </row>
@@ -799,22 +819,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07123972430825233</v>
+        <v>0.2470639035105705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09482713788747787</v>
+        <v>0.23597751557827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05608471110463142</v>
+        <v>0.2729321420192719</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07118228569626808</v>
+        <v>0.2470630317926407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09486017376184464</v>
+        <v>0.2359765938350133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05602823197841644</v>
+        <v>0.2729313870271047</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +842,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07119411624968051</v>
+        <v>0.2470638453960419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09484513103961945</v>
+        <v>0.2359775049345834</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05605604499578476</v>
+        <v>0.272931973139445</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07118809424340725</v>
+        <v>0.2470638886094093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09485560655593872</v>
+        <v>0.235977583697864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05606448650360107</v>
+        <v>0.2729319334030151</v>
       </c>
     </row>
     <row r="4">
@@ -845,22 +865,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07118894092738628</v>
+        <v>0.2470637664198875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09484122693538666</v>
+        <v>0.2359774261713028</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05607112869620323</v>
+        <v>0.2729318936665853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07115463718771935</v>
+        <v>0.2470637425780296</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0948520228266716</v>
+        <v>0.2359774304287774</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05604441091418266</v>
+        <v>0.2729318042596181</v>
       </c>
     </row>
     <row r="5">
@@ -868,22 +888,22 @@
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0711574549973011</v>
+        <v>0.2470636874437332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09486279636621475</v>
+        <v>0.2359773686953953</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05604036524891853</v>
+        <v>0.2729317645231883</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07117878697812557</v>
+        <v>0.2470636740326881</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09486264735460281</v>
+        <v>0.2359773793390819</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05602728947997093</v>
+        <v>0.272931694984436</v>
       </c>
     </row>
     <row r="6">
@@ -891,22 +911,22 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07116825558245182</v>
+        <v>0.2470638155937195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0948546975851059</v>
+        <v>0.2359775006771088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05605451390147209</v>
+        <v>0.2729318837324778</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07119188182055951</v>
+        <v>0.247063647210598</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09484977275133133</v>
+        <v>0.235977332506861</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05604604631662369</v>
+        <v>0.2729317148526509</v>
       </c>
     </row>
     <row r="7">
@@ -914,22 +934,22 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07117349669337272</v>
+        <v>0.2470637202262878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09486169368028641</v>
+        <v>0.2359773857252938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05605972558259964</v>
+        <v>0.2729318340619405</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07119025938212871</v>
+        <v>0.247063584625721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0948314294219017</v>
+        <v>0.2359772686447416</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05608692020177841</v>
+        <v>0.2729316552480062</v>
       </c>
     </row>
     <row r="8">
@@ -937,22 +957,22 @@
         <v>200</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07118490591645241</v>
+        <v>0.2470635697245598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09485668689012527</v>
+        <v>0.2359772090400968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05607689917087555</v>
+        <v>0.2729317446549733</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07117735281586647</v>
+        <v>0.2470635429024696</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09483776241540909</v>
+        <v>0.2359772090400968</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05603340640664101</v>
+        <v>0.2729316552480062</v>
       </c>
     </row>
   </sheetData>
